--- a/stock_predictor_ai/data/company_sentiment_ready/APA_sentiment.xlsx
+++ b/stock_predictor_ai/data/company_sentiment_ready/APA_sentiment.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11627"/>
+  <dimension ref="A1:B11681"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93457,6 +93457,438 @@
         <v>0</v>
       </c>
     </row>
+    <row r="11628">
+      <c r="A11628" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="B11628" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11629">
+      <c r="A11629" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B11629" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11630">
+      <c r="A11630" s="2" t="n">
+        <v>45840</v>
+      </c>
+      <c r="B11630" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11631">
+      <c r="A11631" s="2" t="n">
+        <v>45841</v>
+      </c>
+      <c r="B11631" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11632">
+      <c r="A11632" s="2" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B11632" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11633">
+      <c r="A11633" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B11633" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11634">
+      <c r="A11634" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B11634" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11635">
+      <c r="A11635" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B11635" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11636">
+      <c r="A11636" s="2" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B11636" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11637">
+      <c r="A11637" s="2" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B11637" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11638">
+      <c r="A11638" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B11638" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11639">
+      <c r="A11639" s="2" t="n">
+        <v>45854</v>
+      </c>
+      <c r="B11639" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11640">
+      <c r="A11640" s="2" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B11640" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11641">
+      <c r="A11641" s="2" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B11641" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11642">
+      <c r="A11642" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B11642" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11643">
+      <c r="A11643" s="2" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B11643" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11644">
+      <c r="A11644" s="2" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B11644" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11645">
+      <c r="A11645" s="2" t="n">
+        <v>45862</v>
+      </c>
+      <c r="B11645" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11646">
+      <c r="A11646" s="2" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B11646" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11647">
+      <c r="A11647" s="2" t="n">
+        <v>45866</v>
+      </c>
+      <c r="B11647" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11648">
+      <c r="A11648" s="2" t="n">
+        <v>45867</v>
+      </c>
+      <c r="B11648" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11649">
+      <c r="A11649" s="2" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B11649" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11650">
+      <c r="A11650" s="2" t="n">
+        <v>45869</v>
+      </c>
+      <c r="B11650" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11651">
+      <c r="A11651" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B11651" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11652">
+      <c r="A11652" s="2" t="n">
+        <v>45873</v>
+      </c>
+      <c r="B11652" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11653">
+      <c r="A11653" s="2" t="n">
+        <v>45874</v>
+      </c>
+      <c r="B11653" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11654">
+      <c r="A11654" s="2" t="n">
+        <v>45875</v>
+      </c>
+      <c r="B11654" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11655">
+      <c r="A11655" s="2" t="n">
+        <v>45876</v>
+      </c>
+      <c r="B11655" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11656">
+      <c r="A11656" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="B11656" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11657">
+      <c r="A11657" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="B11657" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11658">
+      <c r="A11658" s="2" t="n">
+        <v>45881</v>
+      </c>
+      <c r="B11658" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11659">
+      <c r="A11659" s="2" t="n">
+        <v>45882</v>
+      </c>
+      <c r="B11659" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11660">
+      <c r="A11660" s="2" t="n">
+        <v>45883</v>
+      </c>
+      <c r="B11660" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11661">
+      <c r="A11661" s="2" t="n">
+        <v>45884</v>
+      </c>
+      <c r="B11661" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11662">
+      <c r="A11662" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="B11662" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11663">
+      <c r="A11663" s="2" t="n">
+        <v>45888</v>
+      </c>
+      <c r="B11663" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11664">
+      <c r="A11664" s="2" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B11664" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11665">
+      <c r="A11665" s="2" t="n">
+        <v>45890</v>
+      </c>
+      <c r="B11665" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11666">
+      <c r="A11666" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="B11666" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11667">
+      <c r="A11667" s="2" t="n">
+        <v>45894</v>
+      </c>
+      <c r="B11667" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11668">
+      <c r="A11668" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="B11668" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11669">
+      <c r="A11669" s="2" t="n">
+        <v>45896</v>
+      </c>
+      <c r="B11669" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11670">
+      <c r="A11670" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B11670" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11671">
+      <c r="A11671" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B11671" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11672">
+      <c r="A11672" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B11672" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11673">
+      <c r="A11673" s="2" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B11673" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11674">
+      <c r="A11674" s="2" t="n">
+        <v>45904</v>
+      </c>
+      <c r="B11674" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11675">
+      <c r="A11675" s="2" t="n">
+        <v>45905</v>
+      </c>
+      <c r="B11675" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11676">
+      <c r="A11676" s="2" t="n">
+        <v>45908</v>
+      </c>
+      <c r="B11676" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11677">
+      <c r="A11677" s="2" t="n">
+        <v>45909</v>
+      </c>
+      <c r="B11677" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11678">
+      <c r="A11678" s="2" t="n">
+        <v>45910</v>
+      </c>
+      <c r="B11678" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11679">
+      <c r="A11679" s="2" t="n">
+        <v>45911</v>
+      </c>
+      <c r="B11679" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11680">
+      <c r="A11680" s="2" t="n">
+        <v>45912</v>
+      </c>
+      <c r="B11680" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11681">
+      <c r="A11681" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B11681" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
